--- a/biology/Zoologie/Colossoma_macropomum/Colossoma_macropomum.xlsx
+++ b/biology/Zoologie/Colossoma_macropomum/Colossoma_macropomum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colossoma macropomum est une espèce de poissons américains de la famille des Serrasalmidae communément appelée « pacu » (comme d'autres espèces), « cachama » ou encore « tambaqui » et qui vit dans le bassin de l'Orénoque. Ce poisson, à la chair appréciée et à la croissance rapide, est élevé en pisciculture. C'est la seule espèce de son genre Colossoma (monotypique).
 </t>
@@ -511,16 +523,18 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La classification première la plus reconnue sur Wikipédia est FishBase, elle classe le genre Colossoma dans la famille des Serrasalmidae[1],[2]. Certaines classifications placent le genre dans la famille des Characidae et dans la sous-famille des Serrasalminae, tandis que d'autres élèvent cette sous-famille au rang de famille : celle des Serrasalmidae.
-Le genre Colossoma a pour synonymes[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La classification première la plus reconnue sur Wikipédia est FishBase, elle classe le genre Colossoma dans la famille des Serrasalmidae,. Certaines classifications placent le genre dans la famille des Characidae et dans la sous-famille des Serrasalminae, tandis que d'autres élèvent cette sous-famille au rang de famille : celle des Serrasalmidae.
+Le genre Colossoma a pour synonymes :
 Colosoma Eigenmann, 1915
 Colosomma
 Melloina Amaral Campos, 1946
 Waiteina Fowler, 1907
 Wateina
-L'espèce Colossoma macropomum a été initialement classée dans le genre Myletes sous le protonyme Myletes macropomus Cuvier, 1816[4]. Elle a pour synonymes[4] :
+L'espèce Colossoma macropomum a été initialement classée dans le genre Myletes sous le protonyme Myletes macropomus Cuvier, 1816. Elle a pour synonymes :
 Colosomma macropomum (Cuvier, 1816)
 Colossoma macropodum (Cuvier, 1816)
 Colossoma marcopomum (Cuvier, 1818)
@@ -563,9 +577,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le corps noir de Colossoma macropomum peut atteindre un mètre de long, ce poisson pouvant vivre 40 ans. C'est un omnivore saisonnier : à la saison des pluies, il consomme des graines (riz sauvage pour les juvéniles), des noix et des fruits qu'il écrase à l'aide de ses puissantes mâchoires, contribuant ainsi à la dissémination des graines[5],[6] ; en saison sèche, il devient plus omnivore, les juvéniles filtrent l'eau à l'aide de leurs branchiospines pour capturer du plancton[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le corps noir de Colossoma macropomum peut atteindre un mètre de long, ce poisson pouvant vivre 40 ans. C'est un omnivore saisonnier : à la saison des pluies, il consomme des graines (riz sauvage pour les juvéniles), des noix et des fruits qu'il écrase à l'aide de ses puissantes mâchoires, contribuant ainsi à la dissémination des graines, ; en saison sèche, il devient plus omnivore, les juvéniles filtrent l'eau à l'aide de leurs branchiospines pour capturer du plancton.
 </t>
         </is>
       </c>
